--- a/Durchläufe/Neue Gewichtung/Ohne Fehler/Vergleich alt  vs neue gewichtung.xlsx
+++ b/Durchläufe/Neue Gewichtung/Ohne Fehler/Vergleich alt  vs neue gewichtung.xlsx
@@ -1,32 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\Durchläufe\Neue Gewichtung\Ohne Fehler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5599784B-3C16-485D-881A-D8D961965D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF473F7-70BC-4457-BB7F-CAB29DF366C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NRI Default" sheetId="1" r:id="rId1"/>
     <sheet name="NRI mal 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Komplett" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
   <si>
     <t>alt</t>
   </si>
@@ -141,18 +153,45 @@
   <si>
     <t>Min NRMSD</t>
   </si>
+  <si>
+    <t>relative change</t>
+  </si>
+  <si>
+    <t>NRI Default, alte Gewichtung</t>
+  </si>
+  <si>
+    <t>NRI Default, neue Gewichtung</t>
+  </si>
+  <si>
+    <t>NRI mal 2, alte Gewichtung</t>
+  </si>
+  <si>
+    <t>NRI mal 2, neue Gewichtung</t>
+  </si>
+  <si>
+    <t>Bau1</t>
+  </si>
+  <si>
+    <t>Bau2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -181,9 +220,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -199,6 +243,3643 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Relative</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> change alt und neu</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Alt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'NRI Default'!$B$4:$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>alai1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>alic1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>alln</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>alsc1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>amti</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dcfsn</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>faipm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>fioac1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>frpm</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fspd</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ghup</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>hsid</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>icor1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ieat</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>imef</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>imti</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>len</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>lfh</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>lfpf</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>lpd</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>lufdt</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>lyf1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>mtfn</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>nri</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>nruf1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>palt</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>pl</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>ppgf1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>pptd</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>rlt</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>sad</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>scor1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>sd</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>sfpc</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>uildt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NRI Default'!$E$4:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>-1.1638499999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43674485099999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1414430000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65499999999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.97909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1100504999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78817729999999986</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.5427999999999933E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.11476</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-7.4299799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5186666666666699E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.13204399999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99832999999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.4845000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-9.2645791439241579E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.4503000000000044E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.1150000000000049E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.49038500000000007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.1049688000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-9.9210399999999949E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.50118571428571435</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.50000280000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E628-4DA3-AD32-BBCB5F2D1D71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Neu</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'NRI Default'!$B$4:$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>alai1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>alic1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>alln</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>alsc1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>amti</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dcfsn</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>faipm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>fioac1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>frpm</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fspd</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ghup</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>hsid</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>icor1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ieat</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>imef</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>imti</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>len</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>lfh</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>lfpf</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>lpd</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>lufdt</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>lyf1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>mtfn</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>nri</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>nruf1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>palt</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>pl</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>ppgf1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>pptd</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>rlt</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>sad</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>scor1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>sd</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>sfpc</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>uildt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NRI Default'!$F$4:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9429662000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28475300000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.309999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6644380000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1872416000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.18296000000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.7942799999999934E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.40961333333333333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6430299999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.31475900000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.2544378698224852E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.9914999999999914E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.54026299999999994</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.4183157999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.36570770000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.56595714285714294</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.94782750000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E628-4DA3-AD32-BBCB5F2D1D71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1512816735"/>
+        <c:axId val="1512817215"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1512816735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1512817215"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1512817215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1512816735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Relative</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> change</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>alt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'NRI mal 2'!$B$4:$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>alai1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>alic1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>alln</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>alsc1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>amti</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dcfsn</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>faipm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>fioac1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>frpm</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fspd</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ghup</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>hsid</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>icor1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ieat</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>imef</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>imti</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>len</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>lfh</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>lfpf</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>lpd</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>lufdt</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>lyf1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>mtfn</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>nri</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>nruf1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>palt</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>pl</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>ppgf1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>pptd</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>rlt</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>sad</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>scor1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>sd</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>sfpc</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>uildt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NRI mal 2'!$E$4:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>6.6215289999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3512003279999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23129100000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6000000000000057E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3399999999999923E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69418500000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91178490000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.10165999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.10642110000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36206666666666659</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.69198345000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.21224758333333327</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.34882529008979501</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.3177457050309625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0539999999999882E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.53436700000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.8191868499999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.33084734999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.13642857142857157</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6052295652173885E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.94668759999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E5D8-4D86-8BE5-7AB6DE9A1B25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>neu</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'NRI mal 2'!$B$4:$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>alai1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>alic1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>alln</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>alsc1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>amti</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>dcfsn</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>faipm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>fioac1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>frpm</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fspd</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ghup</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>hsid</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>icor1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ieat</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>imef</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>imti</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>len</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>lfh</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>lfpf</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>lpd</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>lufdt</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>lyf1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>mtfn</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>nri</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>nruf1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>palt</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>pl</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>ppgf1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>pptd</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>rlt</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>sad</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>scor1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>sd</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>sfpc</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>uildt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NRI mal 2'!$F$4:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>3.6492500000000039E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9742999999999976E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7422745999999961E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.99816199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.4088372093023191E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19964999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.47435899999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10156960000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.47722999999999988</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.19244230000000009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.13672857142857E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.29421733333333339</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.2472086</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.29487179487179443</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.49995999999999985</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.10366800000000009</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7169204999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.24192219999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.14385714285714279</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.434580869565215E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.39743410000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E5D8-4D86-8BE5-7AB6DE9A1B25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1560850623"/>
+        <c:axId val="1560841503"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1560850623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1560841503"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1560841503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1560850623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>NRMSD</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Komplett!$C$4:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>NRI Default, alte Gewichtung</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRI Default, neue Gewichtung</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NRI mal 2, alte Gewichtung</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NRI mal 2, neue Gewichtung</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bau1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bau2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Komplett!$C$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.27964954619999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28816298849999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2645626358</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2657452958</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33179999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C54-481F-8D7A-0F3F15B70111}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1560842943"/>
+        <c:axId val="1560838143"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1560842943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1560838143"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1560838143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1560842943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E26631-73DB-41FB-C1D3-DDEBA67B8C50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>528636</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD1EC6B3-210E-B719-64D6-A1795B0ABC49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1704975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F1487B9-F18B-4759-5DF8-FB5AD19CE5F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -464,27 +4145,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D38"/>
+  <dimension ref="B1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
@@ -495,7 +4189,7 @@
         <v>0.28816298849999999</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -505,8 +4199,14 @@
       <c r="D4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>-1.1638499999999996E-2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -516,8 +4216,14 @@
       <c r="D5">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -527,8 +4233,14 @@
       <c r="D6">
         <v>1039.429662</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0.43674485099999993</v>
+      </c>
+      <c r="F6">
+        <v>3.9429662000000004E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -538,8 +4250,14 @@
       <c r="D7">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -549,8 +4267,14 @@
       <c r="D8">
         <v>1.284753</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>1.1414430000000002</v>
+      </c>
+      <c r="F8">
+        <v>0.28475300000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -560,8 +4284,14 @@
       <c r="D9">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -571,8 +4301,14 @@
       <c r="D10">
         <v>1.7880000000000001E-3</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>0.65499999999999992</v>
+      </c>
+      <c r="F10">
+        <v>0.78800000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -582,8 +4318,14 @@
       <c r="D11">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -593,8 +4335,14 @@
       <c r="D12">
         <v>1.9338000000000001E-2</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>-0.97909999999999997</v>
+      </c>
+      <c r="F12">
+        <v>-3.309999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -604,8 +4352,14 @@
       <c r="D13">
         <v>5.3288760000000002</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>3.1100504999999998</v>
+      </c>
+      <c r="F13">
+        <v>1.6644380000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -615,8 +4369,14 @@
       <c r="D14">
         <v>4.0000000000000002E-9</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -626,8 +4386,14 @@
       <c r="D15">
         <v>43.744832000000002</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>0.78817729999999986</v>
+      </c>
+      <c r="F15">
+        <v>1.1872416000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -637,8 +4403,14 @@
       <c r="D16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -648,8 +4420,14 @@
       <c r="D17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>-2.5427999999999933E-2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -659,8 +4437,14 @@
       <c r="D18">
         <v>8.1703999999999999E-2</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>-0.11476</v>
+      </c>
+      <c r="F18">
+        <v>-0.18296000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -670,8 +4454,14 @@
       <c r="D19">
         <v>9.7205720000000007</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>-7.4299799999999999E-2</v>
+      </c>
+      <c r="F19">
+        <v>-2.7942799999999934E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -681,8 +4471,14 @@
       <c r="D20">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -692,8 +4488,14 @@
       <c r="D21">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -703,8 +4505,14 @@
       <c r="D22">
         <v>1.05721</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>3.5186666666666699E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.40961333333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -714,8 +4522,14 @@
       <c r="D23">
         <v>20.528606</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>0.13204399999999997</v>
+      </c>
+      <c r="F23">
+        <v>2.6430299999999997E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -725,8 +4539,14 @@
       <c r="D24">
         <v>2.629518</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>0.99832999999999994</v>
+      </c>
+      <c r="F24">
+        <v>0.31475900000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -736,8 +4556,14 @@
       <c r="D25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>-2.4845000000000006E-2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -747,8 +4573,14 @@
       <c r="D26">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -758,8 +4590,14 @@
       <c r="D27">
         <v>967455621301.77515</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>-9.2645791439241579E-2</v>
+      </c>
+      <c r="F27">
+        <v>-3.2544378698224852E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>26</v>
       </c>
@@ -769,8 +4607,14 @@
       <c r="D28">
         <v>1.0299149999999999</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>-1.4503000000000044E-2</v>
+      </c>
+      <c r="F28">
+        <v>2.9914999999999914E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>27</v>
       </c>
@@ -780,8 +4624,14 @@
       <c r="D29">
         <v>3200000000</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>28</v>
       </c>
@@ -791,8 +4641,14 @@
       <c r="D30">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>-1.1150000000000049E-2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>29</v>
       </c>
@@ -802,8 +4658,14 @@
       <c r="D31">
         <v>1.5402629999999999</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>0.49038500000000007</v>
+      </c>
+      <c r="F31">
+        <v>0.54026299999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -813,8 +4675,14 @@
       <c r="D32">
         <v>88.366315999999998</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>3.1049688000000004</v>
+      </c>
+      <c r="F32">
+        <v>3.4183157999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>31</v>
       </c>
@@ -824,8 +4692,14 @@
       <c r="D33">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>32</v>
       </c>
@@ -835,8 +4709,14 @@
       <c r="D34">
         <v>12.685846</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>-9.9210399999999949E-2</v>
+      </c>
+      <c r="F34">
+        <v>-0.36570770000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>33</v>
       </c>
@@ -846,8 +4726,14 @@
       <c r="D35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>34</v>
       </c>
@@ -857,8 +4743,14 @@
       <c r="D36">
         <v>3.0383E-2</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>-0.50118571428571435</v>
+      </c>
+      <c r="F36">
+        <v>-0.56595714285714294</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>35</v>
       </c>
@@ -868,8 +4760,14 @@
       <c r="D37">
         <v>230</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>36</v>
       </c>
@@ -879,34 +4777,57 @@
       <c r="D38">
         <v>0.52172499999999999</v>
       </c>
+      <c r="E38">
+        <v>0.50000280000000008</v>
+      </c>
+      <c r="F38">
+        <v>-0.94782750000000004</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F488F4-4AD1-4E2A-A14C-E910BE2FF8E2}">
-  <dimension ref="B2:D38"/>
+  <dimension ref="B1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
@@ -917,7 +4838,7 @@
         <v>0.2657452958</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -927,8 +4848,14 @@
       <c r="D4">
         <v>2.0729850000000001</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>6.6215289999999998</v>
+      </c>
+      <c r="F4">
+        <v>3.6492500000000039E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -938,8 +4865,14 @@
       <c r="D5">
         <v>15.256402</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>8.9742999999999976E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -949,8 +4882,14 @@
       <c r="D6">
         <v>1017.422746</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0.3512003279999999</v>
+      </c>
+      <c r="F6">
+        <v>1.7422745999999961E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -960,8 +4899,14 @@
       <c r="D7">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -971,8 +4916,14 @@
       <c r="D8">
         <v>1.838E-3</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0.23129100000000002</v>
+      </c>
+      <c r="F8">
+        <v>-0.99816199999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -982,8 +4933,14 @@
       <c r="D9">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -993,8 +4950,14 @@
       <c r="D10">
         <v>7.6400000000000003E-4</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>5.6000000000000057E-2</v>
+      </c>
+      <c r="F10">
+        <v>-0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -1004,8 +4967,14 @@
       <c r="D11">
         <v>0.40244200000000002</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>-6.4088372093023191E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -1015,8 +4984,14 @@
       <c r="D12">
         <v>2.3993E-2</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>3.3399999999999923E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.19964999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -1026,8 +5001,14 @@
       <c r="D13">
         <v>1.051282</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>0.69418500000000005</v>
+      </c>
+      <c r="F13">
+        <v>-0.47435899999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -1037,8 +5018,14 @@
       <c r="D14">
         <v>4.0000000000000002E-9</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -1048,8 +5035,14 @@
       <c r="D15">
         <v>22.031392</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>0.91178490000000001</v>
+      </c>
+      <c r="F15">
+        <v>0.10156960000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -1059,8 +5052,14 @@
       <c r="D16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -1070,8 +5069,14 @@
       <c r="D17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -1081,8 +5086,14 @@
       <c r="D18">
         <v>0.14772299999999999</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>0.10165999999999994</v>
+      </c>
+      <c r="F18">
+        <v>0.47722999999999988</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -1092,8 +5103,14 @@
       <c r="D19">
         <v>11.924423000000001</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>0.10642110000000002</v>
+      </c>
+      <c r="F19">
+        <v>0.19244230000000009</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -1103,8 +5120,14 @@
       <c r="D20">
         <v>27.401716</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>-2.13672857142857E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -1114,8 +5137,14 @@
       <c r="D21">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -1125,8 +5154,14 @@
       <c r="D22">
         <v>0.52933699999999995</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>0.36206666666666659</v>
+      </c>
+      <c r="F22">
+        <v>-0.29421733333333339</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -1136,8 +5171,14 @@
       <c r="D23">
         <v>15.055828</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>0.69198345000000006</v>
+      </c>
+      <c r="F23">
+        <v>-0.2472086</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -1147,8 +5188,14 @@
       <c r="D24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -1158,8 +5205,14 @@
       <c r="D25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -1169,8 +5222,14 @@
       <c r="D26">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>0.21224758333333327</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -1180,8 +5239,14 @@
       <c r="D27">
         <v>2000000000000</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>-0.34882529008979501</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>26</v>
       </c>
@@ -1191,8 +5256,14 @@
       <c r="D28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>27</v>
       </c>
@@ -1202,8 +5273,14 @@
       <c r="D29">
         <v>4143589743.5897422</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>0.3177457050309625</v>
+      </c>
+      <c r="F29">
+        <v>0.29487179487179443</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>28</v>
       </c>
@@ -1213,8 +5290,14 @@
       <c r="D30">
         <v>0.14999599999999999</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>4.0539999999999882E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.49995999999999985</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>29</v>
       </c>
@@ -1224,8 +5307,14 @@
       <c r="D31">
         <v>1.1036680000000001</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>0.53436700000000004</v>
+      </c>
+      <c r="F31">
+        <v>0.10366800000000009</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -1235,8 +5324,14 @@
       <c r="D32">
         <v>74.338409999999996</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>4.8191868499999995</v>
+      </c>
+      <c r="F32">
+        <v>2.7169204999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>31</v>
       </c>
@@ -1246,8 +5341,14 @@
       <c r="D33">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>32</v>
       </c>
@@ -1257,8 +5358,14 @@
       <c r="D34">
         <v>24.838443999999999</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>0.33084734999999998</v>
+      </c>
+      <c r="F34">
+        <v>0.24192219999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>33</v>
       </c>
@@ -1268,8 +5375,14 @@
       <c r="D35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>34</v>
       </c>
@@ -1279,8 +5392,14 @@
       <c r="D36">
         <v>8.0070000000000002E-2</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>0.13642857142857157</v>
+      </c>
+      <c r="F36">
+        <v>0.14385714285714279</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>35</v>
       </c>
@@ -1290,8 +5409,14 @@
       <c r="D37">
         <v>251.69953599999999</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>1.6052295652173885E-2</v>
+      </c>
+      <c r="F37">
+        <v>9.434580869565215E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>36</v>
       </c>
@@ -1301,8 +5426,92 @@
       <c r="D38">
         <v>13.974341000000001</v>
       </c>
+      <c r="E38">
+        <v>0.94668759999999996</v>
+      </c>
+      <c r="F38">
+        <v>0.39743410000000007</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FED815-3CF5-46C7-8FBF-2A698E0492BF}">
+  <dimension ref="B3:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>0.27964954619999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.28816298849999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.2645626358</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.2657452958</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.27479999999999999</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.33179999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Durchläufe/Neue Gewichtung/Ohne Fehler/Vergleich alt  vs neue gewichtung.xlsx
+++ b/Durchläufe/Neue Gewichtung/Ohne Fehler/Vergleich alt  vs neue gewichtung.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\Durchläufe\Neue Gewichtung\Ohne Fehler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF473F7-70BC-4457-BB7F-CAB29DF366C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E1D65A-D316-4B2A-96F9-7BEDD8865AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NRI Default" sheetId="1" r:id="rId1"/>
-    <sheet name="NRI mal 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Komplett" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="4" r:id="rId1"/>
+    <sheet name="NRI Default" sheetId="1" r:id="rId2"/>
+    <sheet name="NRI mal 2" sheetId="2" r:id="rId3"/>
+    <sheet name="Komplett" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t>alt</t>
   </si>
@@ -173,13 +174,70 @@
   </si>
   <si>
     <t>Bau2</t>
+  </si>
+  <si>
+    <t>Gewichtung</t>
+  </si>
+  <si>
+    <t>Alt</t>
+  </si>
+  <si>
+    <t>Neu</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Food_per_capita_ve</t>
+  </si>
+  <si>
+    <t>Food_per_capita_proportion</t>
+  </si>
+  <si>
+    <t>Pollution_CO2</t>
+  </si>
+  <si>
+    <t>Pollution_CO2_dt</t>
+  </si>
+  <si>
+    <t>Pollution_proportion</t>
+  </si>
+  <si>
+    <t>Expected_years_of_schooling</t>
+  </si>
+  <si>
+    <t>Expected_years_of_schooling_proportion</t>
+  </si>
+  <si>
+    <t>IPP</t>
+  </si>
+  <si>
+    <t>IPP_proportion</t>
+  </si>
+  <si>
+    <t>Fossil_fuel_consumption_TWh</t>
+  </si>
+  <si>
+    <t>Fossil_fuel_consumption_proportion</t>
+  </si>
+  <si>
+    <t>Arable_land</t>
+  </si>
+  <si>
+    <t>Human_Welfare</t>
+  </si>
+  <si>
+    <t>Ecological_Footprint</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +250,21 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -208,10 +281,36 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -220,14 +319,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1943,10 +2048,10 @@
                   <c:v>0.2657452958</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27479999999999999</c:v>
+                  <c:v>0.33179999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33179999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4144,11 +4249,241 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06AFE00-F432-4C3C-A599-0E316C7C153B}">
+  <dimension ref="A2:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>0.7</v>
+      </c>
+      <c r="C6">
+        <v>0.75</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17">
+        <v>0.7</v>
+      </c>
+      <c r="C17">
+        <v>0.75</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18">
+        <v>0.7</v>
+      </c>
+      <c r="C18">
+        <v>0.75</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B2:D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4159,10 +4494,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
@@ -4793,7 +5128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F488F4-4AD1-4E2A-A14C-E910BE2FF8E2}">
   <dimension ref="B1:F38"/>
   <sheetViews>
@@ -4808,10 +5143,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
@@ -5442,12 +5777,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FED815-3CF5-46C7-8FBF-2A698E0492BF}">
-  <dimension ref="B3:H5"/>
+  <dimension ref="C3:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5458,13 +5793,13 @@
     <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>39</v>
       </c>
@@ -5484,25 +5819,24 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5">
         <v>0.27964954619999999</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>0.28816298849999999</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>0.2645626358</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>0.2657452958</v>
       </c>
-      <c r="G5" s="4">
-        <v>0.27479999999999999</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5" s="2">
         <v>0.33179999999999998</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Durchläufe/Neue Gewichtung/Ohne Fehler/Vergleich alt  vs neue gewichtung.xlsx
+++ b/Durchläufe/Neue Gewichtung/Ohne Fehler/Vergleich alt  vs neue gewichtung.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\Durchläufe\Neue Gewichtung\Ohne Fehler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E1D65A-D316-4B2A-96F9-7BEDD8865AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED116E3-EED2-4039-94D3-C9D06A84746D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="4" r:id="rId1"/>
+    <sheet name="Gewichtung" sheetId="4" r:id="rId1"/>
     <sheet name="NRI Default" sheetId="1" r:id="rId2"/>
     <sheet name="NRI mal 2" sheetId="2" r:id="rId3"/>
     <sheet name="Komplett" sheetId="3" r:id="rId4"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
   <si>
     <t>alt</t>
   </si>
@@ -228,16 +228,13 @@
   </si>
   <si>
     <t>Ecological_Footprint</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +262,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -319,13 +322,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -333,6 +333,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2051,7 +2055,7 @@
                   <c:v>0.33179999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.34739999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3950,16 +3954,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>757237</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1704975</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>1695450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4253,7 +4257,7 @@
   <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4262,10 +4266,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -4276,7 +4280,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B4">
@@ -4285,11 +4289,11 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B5">
@@ -4298,11 +4302,11 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B6">
@@ -4311,11 +4315,11 @@
       <c r="C6">
         <v>0.75</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B7">
@@ -4324,11 +4328,11 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B8">
@@ -4337,11 +4341,11 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B9">
@@ -4350,11 +4354,11 @@
       <c r="C9">
         <v>0.5</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B10">
@@ -4363,11 +4367,11 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B11">
@@ -4376,11 +4380,11 @@
       <c r="C11">
         <v>0.5</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B12">
@@ -4389,11 +4393,11 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B13">
@@ -4402,11 +4406,11 @@
       <c r="C13">
         <v>0.5</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B14">
@@ -4415,11 +4419,11 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B15">
@@ -4428,11 +4432,11 @@
       <c r="C15">
         <v>0.5</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B16">
@@ -4441,11 +4445,11 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B17">
@@ -4454,11 +4458,11 @@
       <c r="C17">
         <v>0.75</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B18">
@@ -4467,8 +4471,8 @@
       <c r="C18">
         <v>0.75</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4482,8 +4486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4494,10 +4498,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
@@ -5133,7 +5137,7 @@
   <dimension ref="B1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D3"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5143,10 +5147,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
@@ -5782,7 +5786,7 @@
   <dimension ref="C3:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5794,10 +5798,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
@@ -5835,8 +5839,8 @@
       <c r="G5" s="2">
         <v>0.33179999999999998</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>63</v>
+      <c r="H5" s="7">
+        <v>0.34739999999999999</v>
       </c>
     </row>
   </sheetData>
